--- a/office_forecast.xlsx
+++ b/office_forecast.xlsx
@@ -442,152 +442,152 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4013274.459365193</v>
+        <v>4013287.453797458</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>7567280.450377824</v>
+        <v>7567291.27172404</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>6203828.610756575</v>
+        <v>6203844.41414916</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>7466883.802336884</v>
+        <v>7466896.936570757</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>6179657.320897163</v>
+        <v>6179655.666082259</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6214278.393742902</v>
+        <v>6214282.351320759</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5763481.201048561</v>
+        <v>5763482.405070635</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>10349136.56723359</v>
+        <v>10349135.31178409</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>7845754.152518504</v>
+        <v>7845749.885916384</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>11102167.03500859</v>
+        <v>11102168.57880039</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>12327025.2590171</v>
+        <v>12327021.30370904</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>6217726.606935296</v>
+        <v>6217724.772162274</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>5436524.992616714</v>
+        <v>5436538.179249536</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>8966841.750941388</v>
+        <v>8966852.952319682</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>7587595.154983135</v>
+        <v>7587611.325645654</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>8840119.219150767</v>
+        <v>8840132.620134369</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>7545871.126094146</v>
+        <v>7545869.609658526</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>7575810.551119422</v>
+        <v>7575814.520581242</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>7121891.877558481</v>
+        <v>7121892.981850699</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>11705466.00158814</v>
+        <v>11705464.55380589</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>9200695.92214134</v>
+        <v>9200691.389339006</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>12456183.58148876</v>
+        <v>12456184.80174518</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>13680424.91451189</v>
+        <v>13680420.5920502</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>7570714.951395708</v>
+        <v>7570712.716792746</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>6789239.096131785</v>
+        <v>6789251.858751548</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>10319373.0047641</v>
+        <v>10319383.76440757</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>8940004.494078794</v>
+        <v>8940020.210125258</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>10192447.27180575</v>
+        <v>10192460.20887447</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>8898144.981150538</v>
+        <v>8898142.994126491</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>8928048.27001746</v>
+        <v>8928051.764125507</v>
       </c>
     </row>
   </sheetData>
